--- a/biology/Botanique/Graminée_ornementale/Graminée_ornementale.xlsx
+++ b/biology/Botanique/Graminée_ornementale/Graminée_ornementale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gramin%C3%A9e_ornementale</t>
+          <t>Graminée_ornementale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graminées ornementales sont des plantes de la famille des Poaceae (graminées) cultivées comme plantes ornementales. On assimile parfois à des graminées ornementales d'autres espèces de plantes utilisées aux mêmes fins, présentant un aspect similaire (plantes graminoïdes) et appartenant à des familles proches comme les Cyperaceae (carex) et les Juncaceae (joncs).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gramin%C3%A9e_ornementale</t>
+          <t>Graminée_ornementale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes sont devenues progressivement très populaires au cours des dernières décennies dans les jardins d'agrément et dans les parcs publics ou privés. On les emploie également parfois comme plantes d'appartement ou pour la confection de bouquets secs
 Leur vogue s'explique tant par la variété de leurs formes et la diversité de leurs emplois que parce qu'elles contribuent en fait pendant trois saisons au décor du jardin. Ce sont en outre des plantes résistantes, notamment à la sécheresse, et qui ont peu de ravageurs, et donc d'entretien facile.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gramin%C3%A9e_ornementale</t>
+          <t>Graminée_ornementale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,47 +561,118 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La mention « AGM » désigne les taxons ayant reçu l'Award of Garden Merit (Prix du mérite horticole) décerné par la  Société royale d'horticulture (RHS) de Londres.
-Graminées
-Agrostis nebulosa (agrostide nébuleuse)
-Calamagrostis ×acutiflora (calamagrostide à fleurs pointues) - plusieurs cultivars[1]
-Calamagrostis brachytricha AGM (herbe aux diamants)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mention « AGM » désigne les taxons ayant reçu l'Award of Garden Merit (Prix du mérite horticole) décerné par la  Société royale d'horticulture (RHS) de Londres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graminée_ornementale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gramin%C3%A9e_ornementale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Graminées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agrostis nebulosa (agrostide nébuleuse)
+Calamagrostis ×acutiflora (calamagrostide à fleurs pointues) - plusieurs cultivars
+Calamagrostis brachytricha AGM (herbe aux diamants)
 Calamagrostis foliosa (calamagrostide feuillue)
-Cortaderia selloana (herbe de la pampa) - nombreux cultivars[1]
-Deschampsia cespitosa (canche cespiteuse) - nombreux cultivars[1]
-Festuca arundinacea (fétuque élevée) - nombreux cultivars[1],[2].
+Cortaderia selloana (herbe de la pampa) - nombreux cultivars
+Deschampsia cespitosa (canche cespiteuse) - nombreux cultivars
+Festuca arundinacea (fétuque élevée) - nombreux cultivars,.
 Festuca californica (fétuque de Californie)
-Festuca glauca (fétuque bleue) - nombreux cultivars[1]
+Festuca glauca (fétuque bleue) - nombreux cultivars
 Festuca idahoensis (fétuque de l'Idaho)
-Festuca ovina (fétuque ovine) - nombreux cultivars[1]
-Festuca rubra (fétuque rouge, fétuque traçante) - nombreux cultivars[1]
-Helictotrichon sempervirens AGM (avoine bleue) - plusieurs cultivars[1]
+Festuca ovina (fétuque ovine) - nombreux cultivars
+Festuca rubra (fétuque rouge, fétuque traçante) - nombreux cultivars
+Helictotrichon sempervirens AGM (avoine bleue) - plusieurs cultivars
 Holcus mollis (houlque molle) - cultivar albovariegatus
 Leymus condensatus
 Melica imperfecta
-Miscanthus sinensis (herbe à éléphant) - nombreux cultivars, dont plusieurs ont reçu l'AGM[1]
+Miscanthus sinensis (herbe à éléphant) - nombreux cultivars, dont plusieurs ont reçu l'AGM
 Molinia caerulea (molinie bleue) - plusieurs cultivars
 Muhlenbergia rigens (muhlengergie)
 Panicum virgatum (panic érigé)
-Pennisetum alopecuroides (herbe aux écouvillons) - nombreux cultivars[1]
-Pennisetum setaceum AGM &amp; P. setaceum 'Rubrum' AGM (herbe aux écouvillons) - &amp; plusieurs autres cultivars[1]
-Pennisetum villosum AGM (herbe aux écouvillons)[1]
-Stipa gigantea AGM (avoine géante, stipe géante)[1]
-Stipa tenuissima (syn. Nassella tenuissima) (cheveux d'ange)[1]
-Carex
-Carex comans (laîche de Nouvelle-Zélande) - nombreux cultivars[1]
-Carex elata 'Aurea' AGM (laiche élevée, laiche raide)[1]
+Pennisetum alopecuroides (herbe aux écouvillons) - nombreux cultivars
+Pennisetum setaceum AGM &amp; P. setaceum 'Rubrum' AGM (herbe aux écouvillons) - &amp; plusieurs autres cultivars
+Pennisetum villosum AGM (herbe aux écouvillons)
+Stipa gigantea AGM (avoine géante, stipe géante)
+Stipa tenuissima (syn. Nassella tenuissima) (cheveux d'ange)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graminée_ornementale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gramin%C3%A9e_ornementale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carex</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carex comans (laîche de Nouvelle-Zélande) - nombreux cultivars
+Carex elata 'Aurea' AGM (laiche élevée, laiche raide)
 Carex flacca (syn. C. glauca) (laîche glauque)
-Carex oshimensis - plusieurs cultivars[1]
+Carex oshimensis - plusieurs cultivars
 Carex pansa
-Carex pendula (laîche à épis pendants), et cultivars[1]
+Carex pendula (laîche à épis pendants), et cultivars
 Carex praegracilis
-Carex siderosticta (laîche à larges feuilles) - plusieurs cultivars[1]
+Carex siderosticta (laîche à larges feuilles) - plusieurs cultivars
 Carex spissa (laîche de San Diego)
-Carex : plusieurs autres espèces et cultivars (dont les laîches japonaises &amp; autres)[1]
-Uncinia rubra (Carex punicea)[1]</t>
+Carex : plusieurs autres espèces et cultivars (dont les laîches japonaises &amp; autres)
+Uncinia rubra (Carex punicea)</t>
         </is>
       </c>
     </row>
